--- a/po_analysis_by_asin/B0BVBXT6P1_po_data.xlsx
+++ b/po_analysis_by_asin/B0BVBXT6P1_po_data.xlsx
@@ -430,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B36"/>
+  <dimension ref="A1:B61"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -452,135 +452,135 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45292</v>
+        <v>45039.99999999999</v>
       </c>
       <c r="B2" t="n">
-        <v>60</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45299</v>
+        <v>45060.99999999999</v>
       </c>
       <c r="B3" t="n">
-        <v>150</v>
+        <v>60</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45306</v>
+        <v>45067.99999999999</v>
       </c>
       <c r="B4" t="n">
-        <v>210</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45313</v>
+        <v>45081.99999999999</v>
       </c>
       <c r="B5" t="n">
-        <v>690</v>
+        <v>50</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45327</v>
+        <v>45088.99999999999</v>
       </c>
       <c r="B6" t="n">
-        <v>420</v>
+        <v>90</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>45341</v>
+        <v>45095.99999999999</v>
       </c>
       <c r="B7" t="n">
-        <v>150</v>
+        <v>110</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>45355</v>
+        <v>45102.99999999999</v>
       </c>
       <c r="B8" t="n">
-        <v>140</v>
+        <v>90</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>45362</v>
+        <v>45109.99999999999</v>
       </c>
       <c r="B9" t="n">
-        <v>120</v>
+        <v>150</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>45369</v>
+        <v>45116.99999999999</v>
       </c>
       <c r="B10" t="n">
-        <v>200</v>
+        <v>220</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>45376</v>
+        <v>45123.99999999999</v>
       </c>
       <c r="B11" t="n">
-        <v>20</v>
+        <v>60</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>45383</v>
+        <v>45130.99999999999</v>
       </c>
       <c r="B12" t="n">
-        <v>80</v>
+        <v>20</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>45390</v>
+        <v>45137.99999999999</v>
       </c>
       <c r="B13" t="n">
-        <v>220</v>
+        <v>710</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>45397</v>
+        <v>45172.99999999999</v>
       </c>
       <c r="B14" t="n">
-        <v>100</v>
+        <v>160</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>45404</v>
+        <v>45179.99999999999</v>
       </c>
       <c r="B15" t="n">
-        <v>160</v>
+        <v>180</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>45411</v>
+        <v>45186.99999999999</v>
       </c>
       <c r="B16" t="n">
-        <v>120</v>
+        <v>420</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>45418</v>
+        <v>45193.99999999999</v>
       </c>
       <c r="B17" t="n">
-        <v>320</v>
+        <v>290</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>45425</v>
+        <v>45207.99999999999</v>
       </c>
       <c r="B18" t="n">
         <v>20</v>
@@ -588,145 +588,345 @@
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
-        <v>45432</v>
+        <v>45214.99999999999</v>
       </c>
       <c r="B19" t="n">
-        <v>40</v>
+        <v>10</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
-        <v>45439</v>
+        <v>45221.99999999999</v>
       </c>
       <c r="B20" t="n">
-        <v>160</v>
+        <v>190</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
-        <v>45446</v>
+        <v>45228.99999999999</v>
       </c>
       <c r="B21" t="n">
-        <v>320</v>
+        <v>230</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
-        <v>45453</v>
+        <v>45235.99999999999</v>
       </c>
       <c r="B22" t="n">
-        <v>20</v>
+        <v>670</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
-        <v>45481</v>
+        <v>45242.99999999999</v>
       </c>
       <c r="B23" t="n">
-        <v>20</v>
+        <v>240</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
-        <v>45488</v>
+        <v>45249.99999999999</v>
       </c>
       <c r="B24" t="n">
-        <v>20</v>
+        <v>990</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
-        <v>45495</v>
+        <v>45263.99999999999</v>
       </c>
       <c r="B25" t="n">
-        <v>200</v>
+        <v>670</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
-        <v>45502</v>
+        <v>45277.99999999999</v>
       </c>
       <c r="B26" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
-        <v>45509</v>
+        <v>45298.99999999999</v>
       </c>
       <c r="B27" t="n">
-        <v>240</v>
+        <v>60</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
-        <v>45516</v>
+        <v>45305.99999999999</v>
       </c>
       <c r="B28" t="n">
-        <v>40</v>
+        <v>150</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
-        <v>45530</v>
+        <v>45312.99999999999</v>
       </c>
       <c r="B29" t="n">
-        <v>140</v>
+        <v>210</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
-        <v>45537</v>
+        <v>45319.99999999999</v>
       </c>
       <c r="B30" t="n">
-        <v>60</v>
+        <v>690</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
-        <v>45544</v>
+        <v>45333.99999999999</v>
       </c>
       <c r="B31" t="n">
-        <v>40</v>
+        <v>420</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
-        <v>45551</v>
+        <v>45347.99999999999</v>
       </c>
       <c r="B32" t="n">
-        <v>300</v>
+        <v>150</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
-        <v>45565</v>
+        <v>45361.99999999999</v>
       </c>
       <c r="B33" t="n">
-        <v>40</v>
+        <v>140</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
-        <v>45572</v>
+        <v>45368.99999999999</v>
       </c>
       <c r="B34" t="n">
-        <v>140</v>
+        <v>120</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
-        <v>45579</v>
+        <v>45375.99999999999</v>
       </c>
       <c r="B35" t="n">
-        <v>40</v>
+        <v>200</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="n">
-        <v>45586</v>
+        <v>45382.99999999999</v>
       </c>
       <c r="B36" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>45389.99999999999</v>
+      </c>
+      <c r="B37" t="n">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>45396.99999999999</v>
+      </c>
+      <c r="B38" t="n">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>45403.99999999999</v>
+      </c>
+      <c r="B39" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>45410.99999999999</v>
+      </c>
+      <c r="B40" t="n">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>45417.99999999999</v>
+      </c>
+      <c r="B41" t="n">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>45424.99999999999</v>
+      </c>
+      <c r="B42" t="n">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>45431.99999999999</v>
+      </c>
+      <c r="B43" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>45438.99999999999</v>
+      </c>
+      <c r="B44" t="n">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>45445.99999999999</v>
+      </c>
+      <c r="B45" t="n">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>45452.99999999999</v>
+      </c>
+      <c r="B46" t="n">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45459.99999999999</v>
+      </c>
+      <c r="B47" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>45487.99999999999</v>
+      </c>
+      <c r="B48" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>45494.99999999999</v>
+      </c>
+      <c r="B49" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>45501.99999999999</v>
+      </c>
+      <c r="B50" t="n">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>45508.99999999999</v>
+      </c>
+      <c r="B51" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>45515.99999999999</v>
+      </c>
+      <c r="B52" t="n">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>45522.99999999999</v>
+      </c>
+      <c r="B53" t="n">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>45536.99999999999</v>
+      </c>
+      <c r="B54" t="n">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>45543.99999999999</v>
+      </c>
+      <c r="B55" t="n">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>45550.99999999999</v>
+      </c>
+      <c r="B56" t="n">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>45557.99999999999</v>
+      </c>
+      <c r="B57" t="n">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>45571.99999999999</v>
+      </c>
+      <c r="B58" t="n">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>45578.99999999999</v>
+      </c>
+      <c r="B59" t="n">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>45585.99999999999</v>
+      </c>
+      <c r="B60" t="n">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>45592.99999999999</v>
+      </c>
+      <c r="B61" t="n">
         <v>400</v>
       </c>
     </row>
@@ -741,7 +941,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:B20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -763,81 +963,153 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45292</v>
+        <v>45046.99999999999</v>
       </c>
       <c r="B2" t="n">
-        <v>1110</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45323</v>
+        <v>45077.99999999999</v>
       </c>
       <c r="B3" t="n">
-        <v>570</v>
+        <v>120</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45352</v>
+        <v>45107.99999999999</v>
       </c>
       <c r="B4" t="n">
-        <v>480</v>
+        <v>440</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45383</v>
+        <v>45138.99999999999</v>
       </c>
       <c r="B5" t="n">
-        <v>560</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45413</v>
+        <v>45169.99999999999</v>
       </c>
       <c r="B6" t="n">
-        <v>660</v>
+        <v>160</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>45444</v>
+        <v>45199.99999999999</v>
       </c>
       <c r="B7" t="n">
-        <v>340</v>
+        <v>890</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>45474</v>
+        <v>45230.99999999999</v>
       </c>
       <c r="B8" t="n">
-        <v>260</v>
+        <v>450</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>45505</v>
+        <v>45260.99999999999</v>
       </c>
       <c r="B9" t="n">
-        <v>420</v>
+        <v>2570</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>45536</v>
+        <v>45291.99999999999</v>
       </c>
       <c r="B10" t="n">
-        <v>400</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>45566</v>
+        <v>45322.99999999999</v>
       </c>
       <c r="B11" t="n">
+        <v>1110</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>45351.99999999999</v>
+      </c>
+      <c r="B12" t="n">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>45382.99999999999</v>
+      </c>
+      <c r="B13" t="n">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>45412.99999999999</v>
+      </c>
+      <c r="B14" t="n">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>45443.99999999999</v>
+      </c>
+      <c r="B15" t="n">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>45473.99999999999</v>
+      </c>
+      <c r="B16" t="n">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>45504.99999999999</v>
+      </c>
+      <c r="B17" t="n">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>45535.99999999999</v>
+      </c>
+      <c r="B18" t="n">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>45565.99999999999</v>
+      </c>
+      <c r="B19" t="n">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>45596.99999999999</v>
+      </c>
+      <c r="B20" t="n">
         <v>620</v>
       </c>
     </row>

--- a/po_analysis_by_asin/B0BVBXT6P1_po_data.xlsx
+++ b/po_analysis_by_asin/B0BVBXT6P1_po_data.xlsx
@@ -9,6 +9,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Weekly Quantity" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Monthly Trend" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="PO Forecast" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -446,7 +447,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Requested quantity</t>
+          <t>Weekly_PO_Qty</t>
         </is>
       </c>
     </row>
@@ -957,7 +958,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Requested quantity</t>
+          <t>Monthly_PO_Qty</t>
         </is>
       </c>
     </row>
@@ -1111,6 +1112,999 @@
       </c>
       <c r="B20" t="n">
         <v>620</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D69"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>ds</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>PO_Forecast</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>yhat_lower</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>yhat_upper</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>45039.99999999999</v>
+      </c>
+      <c r="B2" t="n">
+        <v>219</v>
+      </c>
+      <c r="C2" t="n">
+        <v>-49.02158810577458</v>
+      </c>
+      <c r="D2" t="n">
+        <v>469.8372329640684</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>45060.99999999999</v>
+      </c>
+      <c r="B3" t="n">
+        <v>216</v>
+      </c>
+      <c r="C3" t="n">
+        <v>-47.64342949883456</v>
+      </c>
+      <c r="D3" t="n">
+        <v>464.1572976171902</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>45067.99999999999</v>
+      </c>
+      <c r="B4" t="n">
+        <v>216</v>
+      </c>
+      <c r="C4" t="n">
+        <v>-36.09446518784781</v>
+      </c>
+      <c r="D4" t="n">
+        <v>471.8936992717452</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>45081.99999999999</v>
+      </c>
+      <c r="B5" t="n">
+        <v>214</v>
+      </c>
+      <c r="C5" t="n">
+        <v>-37.94654625337611</v>
+      </c>
+      <c r="D5" t="n">
+        <v>476.3076828307257</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>45088.99999999999</v>
+      </c>
+      <c r="B6" t="n">
+        <v>213</v>
+      </c>
+      <c r="C6" t="n">
+        <v>-50.37760017623234</v>
+      </c>
+      <c r="D6" t="n">
+        <v>473.2798187446548</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>45095.99999999999</v>
+      </c>
+      <c r="B7" t="n">
+        <v>212</v>
+      </c>
+      <c r="C7" t="n">
+        <v>-41.13436437239706</v>
+      </c>
+      <c r="D7" t="n">
+        <v>476.2935508326324</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>45102.99999999999</v>
+      </c>
+      <c r="B8" t="n">
+        <v>211</v>
+      </c>
+      <c r="C8" t="n">
+        <v>-21.88617453206175</v>
+      </c>
+      <c r="D8" t="n">
+        <v>464.7424066851286</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>45109.99999999999</v>
+      </c>
+      <c r="B9" t="n">
+        <v>211</v>
+      </c>
+      <c r="C9" t="n">
+        <v>-39.7294463031843</v>
+      </c>
+      <c r="D9" t="n">
+        <v>462.7463530910896</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>45116.99999999999</v>
+      </c>
+      <c r="B10" t="n">
+        <v>210</v>
+      </c>
+      <c r="C10" t="n">
+        <v>-54.24550267088015</v>
+      </c>
+      <c r="D10" t="n">
+        <v>453.3149983797103</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>45123.99999999999</v>
+      </c>
+      <c r="B11" t="n">
+        <v>209</v>
+      </c>
+      <c r="C11" t="n">
+        <v>-43.01371478827476</v>
+      </c>
+      <c r="D11" t="n">
+        <v>466.1939977848946</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>45130.99999999999</v>
+      </c>
+      <c r="B12" t="n">
+        <v>208</v>
+      </c>
+      <c r="C12" t="n">
+        <v>-50.5391601655671</v>
+      </c>
+      <c r="D12" t="n">
+        <v>459.6230685639261</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>45137.99999999999</v>
+      </c>
+      <c r="B13" t="n">
+        <v>207</v>
+      </c>
+      <c r="C13" t="n">
+        <v>-35.89054196918644</v>
+      </c>
+      <c r="D13" t="n">
+        <v>476.6410419329383</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>45172.99999999999</v>
+      </c>
+      <c r="B14" t="n">
+        <v>203</v>
+      </c>
+      <c r="C14" t="n">
+        <v>-72.42241665541678</v>
+      </c>
+      <c r="D14" t="n">
+        <v>473.4063562875508</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>45179.99999999999</v>
+      </c>
+      <c r="B15" t="n">
+        <v>202</v>
+      </c>
+      <c r="C15" t="n">
+        <v>-69.19600829990368</v>
+      </c>
+      <c r="D15" t="n">
+        <v>460.2458873270348</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>45186.99999999999</v>
+      </c>
+      <c r="B16" t="n">
+        <v>201</v>
+      </c>
+      <c r="C16" t="n">
+        <v>-64.3683613504063</v>
+      </c>
+      <c r="D16" t="n">
+        <v>457.4512114389601</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>45193.99999999999</v>
+      </c>
+      <c r="B17" t="n">
+        <v>201</v>
+      </c>
+      <c r="C17" t="n">
+        <v>-64.94305016449339</v>
+      </c>
+      <c r="D17" t="n">
+        <v>467.4665506075997</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>45207.99999999999</v>
+      </c>
+      <c r="B18" t="n">
+        <v>199</v>
+      </c>
+      <c r="C18" t="n">
+        <v>-70.9083488603558</v>
+      </c>
+      <c r="D18" t="n">
+        <v>446.1390296336273</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>45214.99999999999</v>
+      </c>
+      <c r="B19" t="n">
+        <v>198</v>
+      </c>
+      <c r="C19" t="n">
+        <v>-60.203179652656</v>
+      </c>
+      <c r="D19" t="n">
+        <v>455.473574613183</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>45221.99999999999</v>
+      </c>
+      <c r="B20" t="n">
+        <v>197</v>
+      </c>
+      <c r="C20" t="n">
+        <v>-55.78250494555976</v>
+      </c>
+      <c r="D20" t="n">
+        <v>448.4617559968844</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>45228.99999999999</v>
+      </c>
+      <c r="B21" t="n">
+        <v>196</v>
+      </c>
+      <c r="C21" t="n">
+        <v>-50.03161660147322</v>
+      </c>
+      <c r="D21" t="n">
+        <v>440.7330366360612</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>45235.99999999999</v>
+      </c>
+      <c r="B22" t="n">
+        <v>196</v>
+      </c>
+      <c r="C22" t="n">
+        <v>-43.98555885620003</v>
+      </c>
+      <c r="D22" t="n">
+        <v>459.5380259176649</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>45242.99999999999</v>
+      </c>
+      <c r="B23" t="n">
+        <v>195</v>
+      </c>
+      <c r="C23" t="n">
+        <v>-49.23287264104616</v>
+      </c>
+      <c r="D23" t="n">
+        <v>482.5025448164245</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>45249.99999999999</v>
+      </c>
+      <c r="B24" t="n">
+        <v>194</v>
+      </c>
+      <c r="C24" t="n">
+        <v>-61.37777878944058</v>
+      </c>
+      <c r="D24" t="n">
+        <v>473.4067257482108</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>45263.99999999999</v>
+      </c>
+      <c r="B25" t="n">
+        <v>192</v>
+      </c>
+      <c r="C25" t="n">
+        <v>-54.61055189511624</v>
+      </c>
+      <c r="D25" t="n">
+        <v>459.9593306274848</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>45277.99999999999</v>
+      </c>
+      <c r="B26" t="n">
+        <v>191</v>
+      </c>
+      <c r="C26" t="n">
+        <v>-66.72067550079696</v>
+      </c>
+      <c r="D26" t="n">
+        <v>441.7741948258306</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>45298.99999999999</v>
+      </c>
+      <c r="B27" t="n">
+        <v>188</v>
+      </c>
+      <c r="C27" t="n">
+        <v>-51.63205539237337</v>
+      </c>
+      <c r="D27" t="n">
+        <v>450.971062470273</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>45305.99999999999</v>
+      </c>
+      <c r="B28" t="n">
+        <v>187</v>
+      </c>
+      <c r="C28" t="n">
+        <v>-66.13568156145666</v>
+      </c>
+      <c r="D28" t="n">
+        <v>441.5166930196375</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>45312.99999999999</v>
+      </c>
+      <c r="B29" t="n">
+        <v>186</v>
+      </c>
+      <c r="C29" t="n">
+        <v>-80.72539722335402</v>
+      </c>
+      <c r="D29" t="n">
+        <v>445.0151507990587</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>45319.99999999999</v>
+      </c>
+      <c r="B30" t="n">
+        <v>186</v>
+      </c>
+      <c r="C30" t="n">
+        <v>-87.87858567425913</v>
+      </c>
+      <c r="D30" t="n">
+        <v>433.9571197906317</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>45333.99999999999</v>
+      </c>
+      <c r="B31" t="n">
+        <v>184</v>
+      </c>
+      <c r="C31" t="n">
+        <v>-66.14975902638255</v>
+      </c>
+      <c r="D31" t="n">
+        <v>445.6379164060536</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>45347.99999999999</v>
+      </c>
+      <c r="B32" t="n">
+        <v>182</v>
+      </c>
+      <c r="C32" t="n">
+        <v>-75.37371712289176</v>
+      </c>
+      <c r="D32" t="n">
+        <v>436.2570395020772</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>45361.99999999999</v>
+      </c>
+      <c r="B33" t="n">
+        <v>181</v>
+      </c>
+      <c r="C33" t="n">
+        <v>-67.06983472590029</v>
+      </c>
+      <c r="D33" t="n">
+        <v>442.9713303156904</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>45368.99999999999</v>
+      </c>
+      <c r="B34" t="n">
+        <v>180</v>
+      </c>
+      <c r="C34" t="n">
+        <v>-81.92041279356654</v>
+      </c>
+      <c r="D34" t="n">
+        <v>418.8653709188399</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>45375.99999999999</v>
+      </c>
+      <c r="B35" t="n">
+        <v>179</v>
+      </c>
+      <c r="C35" t="n">
+        <v>-82.46724234731596</v>
+      </c>
+      <c r="D35" t="n">
+        <v>450.6167962211952</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>45382.99999999999</v>
+      </c>
+      <c r="B36" t="n">
+        <v>178</v>
+      </c>
+      <c r="C36" t="n">
+        <v>-94.26426969689021</v>
+      </c>
+      <c r="D36" t="n">
+        <v>427.210374228596</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>45389.99999999999</v>
+      </c>
+      <c r="B37" t="n">
+        <v>177</v>
+      </c>
+      <c r="C37" t="n">
+        <v>-75.27445537521444</v>
+      </c>
+      <c r="D37" t="n">
+        <v>428.9403539667439</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>45396.99999999999</v>
+      </c>
+      <c r="B38" t="n">
+        <v>176</v>
+      </c>
+      <c r="C38" t="n">
+        <v>-57.57822044835729</v>
+      </c>
+      <c r="D38" t="n">
+        <v>453.0545698679194</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>45403.99999999999</v>
+      </c>
+      <c r="B39" t="n">
+        <v>176</v>
+      </c>
+      <c r="C39" t="n">
+        <v>-98.71716520407584</v>
+      </c>
+      <c r="D39" t="n">
+        <v>452.722061289477</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>45410.99999999999</v>
+      </c>
+      <c r="B40" t="n">
+        <v>175</v>
+      </c>
+      <c r="C40" t="n">
+        <v>-56.36143686387518</v>
+      </c>
+      <c r="D40" t="n">
+        <v>428.1369628841407</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>45417.99999999999</v>
+      </c>
+      <c r="B41" t="n">
+        <v>174</v>
+      </c>
+      <c r="C41" t="n">
+        <v>-85.08314487662432</v>
+      </c>
+      <c r="D41" t="n">
+        <v>418.3008777010457</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>45424.99999999999</v>
+      </c>
+      <c r="B42" t="n">
+        <v>173</v>
+      </c>
+      <c r="C42" t="n">
+        <v>-90.03656984816617</v>
+      </c>
+      <c r="D42" t="n">
+        <v>440.0638674723419</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>45431.99999999999</v>
+      </c>
+      <c r="B43" t="n">
+        <v>172</v>
+      </c>
+      <c r="C43" t="n">
+        <v>-77.21079523393456</v>
+      </c>
+      <c r="D43" t="n">
+        <v>416.9145549421097</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>45438.99999999999</v>
+      </c>
+      <c r="B44" t="n">
+        <v>171</v>
+      </c>
+      <c r="C44" t="n">
+        <v>-92.05645429757871</v>
+      </c>
+      <c r="D44" t="n">
+        <v>426.5964394981197</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>45445.99999999999</v>
+      </c>
+      <c r="B45" t="n">
+        <v>171</v>
+      </c>
+      <c r="C45" t="n">
+        <v>-78.56493475845285</v>
+      </c>
+      <c r="D45" t="n">
+        <v>417.2815661027817</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>45452.99999999999</v>
+      </c>
+      <c r="B46" t="n">
+        <v>170</v>
+      </c>
+      <c r="C46" t="n">
+        <v>-90.71824109472816</v>
+      </c>
+      <c r="D46" t="n">
+        <v>428.6832140480072</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45459.99999999999</v>
+      </c>
+      <c r="B47" t="n">
+        <v>169</v>
+      </c>
+      <c r="C47" t="n">
+        <v>-76.95878988268598</v>
+      </c>
+      <c r="D47" t="n">
+        <v>409.0835067992993</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>45487.99999999999</v>
+      </c>
+      <c r="B48" t="n">
+        <v>166</v>
+      </c>
+      <c r="C48" t="n">
+        <v>-101.2657487034263</v>
+      </c>
+      <c r="D48" t="n">
+        <v>401.4618512996057</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>45494.99999999999</v>
+      </c>
+      <c r="B49" t="n">
+        <v>165</v>
+      </c>
+      <c r="C49" t="n">
+        <v>-91.41469464882624</v>
+      </c>
+      <c r="D49" t="n">
+        <v>438.262722490812</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>45501.99999999999</v>
+      </c>
+      <c r="B50" t="n">
+        <v>164</v>
+      </c>
+      <c r="C50" t="n">
+        <v>-99.85633927466023</v>
+      </c>
+      <c r="D50" t="n">
+        <v>442.1676557555488</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>45508.99999999999</v>
+      </c>
+      <c r="B51" t="n">
+        <v>163</v>
+      </c>
+      <c r="C51" t="n">
+        <v>-93.27246730948025</v>
+      </c>
+      <c r="D51" t="n">
+        <v>409.157732678837</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>45515.99999999999</v>
+      </c>
+      <c r="B52" t="n">
+        <v>162</v>
+      </c>
+      <c r="C52" t="n">
+        <v>-113.0944219383171</v>
+      </c>
+      <c r="D52" t="n">
+        <v>413.0456084898504</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>45522.99999999999</v>
+      </c>
+      <c r="B53" t="n">
+        <v>161</v>
+      </c>
+      <c r="C53" t="n">
+        <v>-89.31669363288222</v>
+      </c>
+      <c r="D53" t="n">
+        <v>421.0228805041127</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>45536.99999999999</v>
+      </c>
+      <c r="B54" t="n">
+        <v>160</v>
+      </c>
+      <c r="C54" t="n">
+        <v>-93.86507339993246</v>
+      </c>
+      <c r="D54" t="n">
+        <v>423.4353590975244</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>45543.99999999999</v>
+      </c>
+      <c r="B55" t="n">
+        <v>159</v>
+      </c>
+      <c r="C55" t="n">
+        <v>-104.9715848193525</v>
+      </c>
+      <c r="D55" t="n">
+        <v>420.8754635470005</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>45550.99999999999</v>
+      </c>
+      <c r="B56" t="n">
+        <v>158</v>
+      </c>
+      <c r="C56" t="n">
+        <v>-113.158156794671</v>
+      </c>
+      <c r="D56" t="n">
+        <v>422.3609246902586</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>45557.99999999999</v>
+      </c>
+      <c r="B57" t="n">
+        <v>157</v>
+      </c>
+      <c r="C57" t="n">
+        <v>-102.2083960675921</v>
+      </c>
+      <c r="D57" t="n">
+        <v>435.71695402873</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>45571.99999999999</v>
+      </c>
+      <c r="B58" t="n">
+        <v>156</v>
+      </c>
+      <c r="C58" t="n">
+        <v>-96.51952304439831</v>
+      </c>
+      <c r="D58" t="n">
+        <v>418.8170491945411</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>45578.99999999999</v>
+      </c>
+      <c r="B59" t="n">
+        <v>155</v>
+      </c>
+      <c r="C59" t="n">
+        <v>-103.4846493832974</v>
+      </c>
+      <c r="D59" t="n">
+        <v>398.5611394116859</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>45585.99999999999</v>
+      </c>
+      <c r="B60" t="n">
+        <v>154</v>
+      </c>
+      <c r="C60" t="n">
+        <v>-99.81750816742107</v>
+      </c>
+      <c r="D60" t="n">
+        <v>404.69282610804</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>45592.99999999999</v>
+      </c>
+      <c r="B61" t="n">
+        <v>153</v>
+      </c>
+      <c r="C61" t="n">
+        <v>-115.128461713263</v>
+      </c>
+      <c r="D61" t="n">
+        <v>416.3080984353999</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>45599.99999999999</v>
+      </c>
+      <c r="B62" t="n">
+        <v>152</v>
+      </c>
+      <c r="C62" t="n">
+        <v>-98.45498947882329</v>
+      </c>
+      <c r="D62" t="n">
+        <v>403.6800290188389</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>45606.99999999999</v>
+      </c>
+      <c r="B63" t="n">
+        <v>151</v>
+      </c>
+      <c r="C63" t="n">
+        <v>-94.44719218133731</v>
+      </c>
+      <c r="D63" t="n">
+        <v>416.1530277656208</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>45613.99999999999</v>
+      </c>
+      <c r="B64" t="n">
+        <v>151</v>
+      </c>
+      <c r="C64" t="n">
+        <v>-97.17307238573306</v>
+      </c>
+      <c r="D64" t="n">
+        <v>384.596359739498</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>45620.99999999999</v>
+      </c>
+      <c r="B65" t="n">
+        <v>150</v>
+      </c>
+      <c r="C65" t="n">
+        <v>-115.5693367864579</v>
+      </c>
+      <c r="D65" t="n">
+        <v>394.9129239423201</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>45627.99999999999</v>
+      </c>
+      <c r="B66" t="n">
+        <v>149</v>
+      </c>
+      <c r="C66" t="n">
+        <v>-101.2431676799086</v>
+      </c>
+      <c r="D66" t="n">
+        <v>418.7165015691062</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>45634.99999999999</v>
+      </c>
+      <c r="B67" t="n">
+        <v>148</v>
+      </c>
+      <c r="C67" t="n">
+        <v>-123.2569962768132</v>
+      </c>
+      <c r="D67" t="n">
+        <v>402.9925034983793</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>45641.99999999999</v>
+      </c>
+      <c r="B68" t="n">
+        <v>147</v>
+      </c>
+      <c r="C68" t="n">
+        <v>-111.4951743891347</v>
+      </c>
+      <c r="D68" t="n">
+        <v>418.1848013221645</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>45648.99999999999</v>
+      </c>
+      <c r="B69" t="n">
+        <v>146</v>
+      </c>
+      <c r="C69" t="n">
+        <v>-110.9709232269753</v>
+      </c>
+      <c r="D69" t="n">
+        <v>393.3154726183712</v>
       </c>
     </row>
   </sheetData>

--- a/po_analysis_by_asin/B0BVBXT6P1_po_data.xlsx
+++ b/po_analysis_by_asin/B0BVBXT6P1_po_data.xlsx
@@ -1125,7 +1125,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D69"/>
+  <dimension ref="A1:B69"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1144,16 +1144,6 @@
           <t>PO_Forecast</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>yhat_lower</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>yhat_upper</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
@@ -1162,12 +1152,6 @@
       <c r="B2" t="n">
         <v>219</v>
       </c>
-      <c r="C2" t="n">
-        <v>-49.02158810577458</v>
-      </c>
-      <c r="D2" t="n">
-        <v>469.8372329640684</v>
-      </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
@@ -1176,12 +1160,6 @@
       <c r="B3" t="n">
         <v>216</v>
       </c>
-      <c r="C3" t="n">
-        <v>-47.64342949883456</v>
-      </c>
-      <c r="D3" t="n">
-        <v>464.1572976171902</v>
-      </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
@@ -1190,12 +1168,6 @@
       <c r="B4" t="n">
         <v>216</v>
       </c>
-      <c r="C4" t="n">
-        <v>-36.09446518784781</v>
-      </c>
-      <c r="D4" t="n">
-        <v>471.8936992717452</v>
-      </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
@@ -1204,12 +1176,6 @@
       <c r="B5" t="n">
         <v>214</v>
       </c>
-      <c r="C5" t="n">
-        <v>-37.94654625337611</v>
-      </c>
-      <c r="D5" t="n">
-        <v>476.3076828307257</v>
-      </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
@@ -1218,12 +1184,6 @@
       <c r="B6" t="n">
         <v>213</v>
       </c>
-      <c r="C6" t="n">
-        <v>-50.37760017623234</v>
-      </c>
-      <c r="D6" t="n">
-        <v>473.2798187446548</v>
-      </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
@@ -1232,12 +1192,6 @@
       <c r="B7" t="n">
         <v>212</v>
       </c>
-      <c r="C7" t="n">
-        <v>-41.13436437239706</v>
-      </c>
-      <c r="D7" t="n">
-        <v>476.2935508326324</v>
-      </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
@@ -1246,12 +1200,6 @@
       <c r="B8" t="n">
         <v>211</v>
       </c>
-      <c r="C8" t="n">
-        <v>-21.88617453206175</v>
-      </c>
-      <c r="D8" t="n">
-        <v>464.7424066851286</v>
-      </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
@@ -1260,12 +1208,6 @@
       <c r="B9" t="n">
         <v>211</v>
       </c>
-      <c r="C9" t="n">
-        <v>-39.7294463031843</v>
-      </c>
-      <c r="D9" t="n">
-        <v>462.7463530910896</v>
-      </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
@@ -1274,12 +1216,6 @@
       <c r="B10" t="n">
         <v>210</v>
       </c>
-      <c r="C10" t="n">
-        <v>-54.24550267088015</v>
-      </c>
-      <c r="D10" t="n">
-        <v>453.3149983797103</v>
-      </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
@@ -1288,12 +1224,6 @@
       <c r="B11" t="n">
         <v>209</v>
       </c>
-      <c r="C11" t="n">
-        <v>-43.01371478827476</v>
-      </c>
-      <c r="D11" t="n">
-        <v>466.1939977848946</v>
-      </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
@@ -1302,12 +1232,6 @@
       <c r="B12" t="n">
         <v>208</v>
       </c>
-      <c r="C12" t="n">
-        <v>-50.5391601655671</v>
-      </c>
-      <c r="D12" t="n">
-        <v>459.6230685639261</v>
-      </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
@@ -1316,12 +1240,6 @@
       <c r="B13" t="n">
         <v>207</v>
       </c>
-      <c r="C13" t="n">
-        <v>-35.89054196918644</v>
-      </c>
-      <c r="D13" t="n">
-        <v>476.6410419329383</v>
-      </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
@@ -1330,12 +1248,6 @@
       <c r="B14" t="n">
         <v>203</v>
       </c>
-      <c r="C14" t="n">
-        <v>-72.42241665541678</v>
-      </c>
-      <c r="D14" t="n">
-        <v>473.4063562875508</v>
-      </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
@@ -1344,12 +1256,6 @@
       <c r="B15" t="n">
         <v>202</v>
       </c>
-      <c r="C15" t="n">
-        <v>-69.19600829990368</v>
-      </c>
-      <c r="D15" t="n">
-        <v>460.2458873270348</v>
-      </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
@@ -1358,12 +1264,6 @@
       <c r="B16" t="n">
         <v>201</v>
       </c>
-      <c r="C16" t="n">
-        <v>-64.3683613504063</v>
-      </c>
-      <c r="D16" t="n">
-        <v>457.4512114389601</v>
-      </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
@@ -1372,12 +1272,6 @@
       <c r="B17" t="n">
         <v>201</v>
       </c>
-      <c r="C17" t="n">
-        <v>-64.94305016449339</v>
-      </c>
-      <c r="D17" t="n">
-        <v>467.4665506075997</v>
-      </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
@@ -1386,12 +1280,6 @@
       <c r="B18" t="n">
         <v>199</v>
       </c>
-      <c r="C18" t="n">
-        <v>-70.9083488603558</v>
-      </c>
-      <c r="D18" t="n">
-        <v>446.1390296336273</v>
-      </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
@@ -1400,12 +1288,6 @@
       <c r="B19" t="n">
         <v>198</v>
       </c>
-      <c r="C19" t="n">
-        <v>-60.203179652656</v>
-      </c>
-      <c r="D19" t="n">
-        <v>455.473574613183</v>
-      </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
@@ -1414,12 +1296,6 @@
       <c r="B20" t="n">
         <v>197</v>
       </c>
-      <c r="C20" t="n">
-        <v>-55.78250494555976</v>
-      </c>
-      <c r="D20" t="n">
-        <v>448.4617559968844</v>
-      </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
@@ -1428,12 +1304,6 @@
       <c r="B21" t="n">
         <v>196</v>
       </c>
-      <c r="C21" t="n">
-        <v>-50.03161660147322</v>
-      </c>
-      <c r="D21" t="n">
-        <v>440.7330366360612</v>
-      </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
@@ -1442,12 +1312,6 @@
       <c r="B22" t="n">
         <v>196</v>
       </c>
-      <c r="C22" t="n">
-        <v>-43.98555885620003</v>
-      </c>
-      <c r="D22" t="n">
-        <v>459.5380259176649</v>
-      </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
@@ -1456,12 +1320,6 @@
       <c r="B23" t="n">
         <v>195</v>
       </c>
-      <c r="C23" t="n">
-        <v>-49.23287264104616</v>
-      </c>
-      <c r="D23" t="n">
-        <v>482.5025448164245</v>
-      </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
@@ -1470,12 +1328,6 @@
       <c r="B24" t="n">
         <v>194</v>
       </c>
-      <c r="C24" t="n">
-        <v>-61.37777878944058</v>
-      </c>
-      <c r="D24" t="n">
-        <v>473.4067257482108</v>
-      </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
@@ -1484,12 +1336,6 @@
       <c r="B25" t="n">
         <v>192</v>
       </c>
-      <c r="C25" t="n">
-        <v>-54.61055189511624</v>
-      </c>
-      <c r="D25" t="n">
-        <v>459.9593306274848</v>
-      </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
@@ -1498,12 +1344,6 @@
       <c r="B26" t="n">
         <v>191</v>
       </c>
-      <c r="C26" t="n">
-        <v>-66.72067550079696</v>
-      </c>
-      <c r="D26" t="n">
-        <v>441.7741948258306</v>
-      </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
@@ -1512,12 +1352,6 @@
       <c r="B27" t="n">
         <v>188</v>
       </c>
-      <c r="C27" t="n">
-        <v>-51.63205539237337</v>
-      </c>
-      <c r="D27" t="n">
-        <v>450.971062470273</v>
-      </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
@@ -1526,12 +1360,6 @@
       <c r="B28" t="n">
         <v>187</v>
       </c>
-      <c r="C28" t="n">
-        <v>-66.13568156145666</v>
-      </c>
-      <c r="D28" t="n">
-        <v>441.5166930196375</v>
-      </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
@@ -1540,12 +1368,6 @@
       <c r="B29" t="n">
         <v>186</v>
       </c>
-      <c r="C29" t="n">
-        <v>-80.72539722335402</v>
-      </c>
-      <c r="D29" t="n">
-        <v>445.0151507990587</v>
-      </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
@@ -1554,12 +1376,6 @@
       <c r="B30" t="n">
         <v>186</v>
       </c>
-      <c r="C30" t="n">
-        <v>-87.87858567425913</v>
-      </c>
-      <c r="D30" t="n">
-        <v>433.9571197906317</v>
-      </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
@@ -1568,12 +1384,6 @@
       <c r="B31" t="n">
         <v>184</v>
       </c>
-      <c r="C31" t="n">
-        <v>-66.14975902638255</v>
-      </c>
-      <c r="D31" t="n">
-        <v>445.6379164060536</v>
-      </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
@@ -1582,12 +1392,6 @@
       <c r="B32" t="n">
         <v>182</v>
       </c>
-      <c r="C32" t="n">
-        <v>-75.37371712289176</v>
-      </c>
-      <c r="D32" t="n">
-        <v>436.2570395020772</v>
-      </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
@@ -1596,12 +1400,6 @@
       <c r="B33" t="n">
         <v>181</v>
       </c>
-      <c r="C33" t="n">
-        <v>-67.06983472590029</v>
-      </c>
-      <c r="D33" t="n">
-        <v>442.9713303156904</v>
-      </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
@@ -1610,12 +1408,6 @@
       <c r="B34" t="n">
         <v>180</v>
       </c>
-      <c r="C34" t="n">
-        <v>-81.92041279356654</v>
-      </c>
-      <c r="D34" t="n">
-        <v>418.8653709188399</v>
-      </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
@@ -1624,12 +1416,6 @@
       <c r="B35" t="n">
         <v>179</v>
       </c>
-      <c r="C35" t="n">
-        <v>-82.46724234731596</v>
-      </c>
-      <c r="D35" t="n">
-        <v>450.6167962211952</v>
-      </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="n">
@@ -1638,12 +1424,6 @@
       <c r="B36" t="n">
         <v>178</v>
       </c>
-      <c r="C36" t="n">
-        <v>-94.26426969689021</v>
-      </c>
-      <c r="D36" t="n">
-        <v>427.210374228596</v>
-      </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="n">
@@ -1652,12 +1432,6 @@
       <c r="B37" t="n">
         <v>177</v>
       </c>
-      <c r="C37" t="n">
-        <v>-75.27445537521444</v>
-      </c>
-      <c r="D37" t="n">
-        <v>428.9403539667439</v>
-      </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="n">
@@ -1666,12 +1440,6 @@
       <c r="B38" t="n">
         <v>176</v>
       </c>
-      <c r="C38" t="n">
-        <v>-57.57822044835729</v>
-      </c>
-      <c r="D38" t="n">
-        <v>453.0545698679194</v>
-      </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="n">
@@ -1680,12 +1448,6 @@
       <c r="B39" t="n">
         <v>176</v>
       </c>
-      <c r="C39" t="n">
-        <v>-98.71716520407584</v>
-      </c>
-      <c r="D39" t="n">
-        <v>452.722061289477</v>
-      </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="n">
@@ -1694,12 +1456,6 @@
       <c r="B40" t="n">
         <v>175</v>
       </c>
-      <c r="C40" t="n">
-        <v>-56.36143686387518</v>
-      </c>
-      <c r="D40" t="n">
-        <v>428.1369628841407</v>
-      </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="n">
@@ -1708,12 +1464,6 @@
       <c r="B41" t="n">
         <v>174</v>
       </c>
-      <c r="C41" t="n">
-        <v>-85.08314487662432</v>
-      </c>
-      <c r="D41" t="n">
-        <v>418.3008777010457</v>
-      </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="n">
@@ -1722,12 +1472,6 @@
       <c r="B42" t="n">
         <v>173</v>
       </c>
-      <c r="C42" t="n">
-        <v>-90.03656984816617</v>
-      </c>
-      <c r="D42" t="n">
-        <v>440.0638674723419</v>
-      </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="n">
@@ -1736,12 +1480,6 @@
       <c r="B43" t="n">
         <v>172</v>
       </c>
-      <c r="C43" t="n">
-        <v>-77.21079523393456</v>
-      </c>
-      <c r="D43" t="n">
-        <v>416.9145549421097</v>
-      </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="n">
@@ -1750,12 +1488,6 @@
       <c r="B44" t="n">
         <v>171</v>
       </c>
-      <c r="C44" t="n">
-        <v>-92.05645429757871</v>
-      </c>
-      <c r="D44" t="n">
-        <v>426.5964394981197</v>
-      </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="n">
@@ -1764,12 +1496,6 @@
       <c r="B45" t="n">
         <v>171</v>
       </c>
-      <c r="C45" t="n">
-        <v>-78.56493475845285</v>
-      </c>
-      <c r="D45" t="n">
-        <v>417.2815661027817</v>
-      </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="n">
@@ -1778,12 +1504,6 @@
       <c r="B46" t="n">
         <v>170</v>
       </c>
-      <c r="C46" t="n">
-        <v>-90.71824109472816</v>
-      </c>
-      <c r="D46" t="n">
-        <v>428.6832140480072</v>
-      </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="n">
@@ -1792,12 +1512,6 @@
       <c r="B47" t="n">
         <v>169</v>
       </c>
-      <c r="C47" t="n">
-        <v>-76.95878988268598</v>
-      </c>
-      <c r="D47" t="n">
-        <v>409.0835067992993</v>
-      </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="n">
@@ -1806,12 +1520,6 @@
       <c r="B48" t="n">
         <v>166</v>
       </c>
-      <c r="C48" t="n">
-        <v>-101.2657487034263</v>
-      </c>
-      <c r="D48" t="n">
-        <v>401.4618512996057</v>
-      </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="n">
@@ -1820,12 +1528,6 @@
       <c r="B49" t="n">
         <v>165</v>
       </c>
-      <c r="C49" t="n">
-        <v>-91.41469464882624</v>
-      </c>
-      <c r="D49" t="n">
-        <v>438.262722490812</v>
-      </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="n">
@@ -1834,12 +1536,6 @@
       <c r="B50" t="n">
         <v>164</v>
       </c>
-      <c r="C50" t="n">
-        <v>-99.85633927466023</v>
-      </c>
-      <c r="D50" t="n">
-        <v>442.1676557555488</v>
-      </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="n">
@@ -1848,12 +1544,6 @@
       <c r="B51" t="n">
         <v>163</v>
       </c>
-      <c r="C51" t="n">
-        <v>-93.27246730948025</v>
-      </c>
-      <c r="D51" t="n">
-        <v>409.157732678837</v>
-      </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="n">
@@ -1862,12 +1552,6 @@
       <c r="B52" t="n">
         <v>162</v>
       </c>
-      <c r="C52" t="n">
-        <v>-113.0944219383171</v>
-      </c>
-      <c r="D52" t="n">
-        <v>413.0456084898504</v>
-      </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="n">
@@ -1876,12 +1560,6 @@
       <c r="B53" t="n">
         <v>161</v>
       </c>
-      <c r="C53" t="n">
-        <v>-89.31669363288222</v>
-      </c>
-      <c r="D53" t="n">
-        <v>421.0228805041127</v>
-      </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="n">
@@ -1890,12 +1568,6 @@
       <c r="B54" t="n">
         <v>160</v>
       </c>
-      <c r="C54" t="n">
-        <v>-93.86507339993246</v>
-      </c>
-      <c r="D54" t="n">
-        <v>423.4353590975244</v>
-      </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="n">
@@ -1904,12 +1576,6 @@
       <c r="B55" t="n">
         <v>159</v>
       </c>
-      <c r="C55" t="n">
-        <v>-104.9715848193525</v>
-      </c>
-      <c r="D55" t="n">
-        <v>420.8754635470005</v>
-      </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="n">
@@ -1918,12 +1584,6 @@
       <c r="B56" t="n">
         <v>158</v>
       </c>
-      <c r="C56" t="n">
-        <v>-113.158156794671</v>
-      </c>
-      <c r="D56" t="n">
-        <v>422.3609246902586</v>
-      </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="n">
@@ -1932,12 +1592,6 @@
       <c r="B57" t="n">
         <v>157</v>
       </c>
-      <c r="C57" t="n">
-        <v>-102.2083960675921</v>
-      </c>
-      <c r="D57" t="n">
-        <v>435.71695402873</v>
-      </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="n">
@@ -1946,12 +1600,6 @@
       <c r="B58" t="n">
         <v>156</v>
       </c>
-      <c r="C58" t="n">
-        <v>-96.51952304439831</v>
-      </c>
-      <c r="D58" t="n">
-        <v>418.8170491945411</v>
-      </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="n">
@@ -1960,12 +1608,6 @@
       <c r="B59" t="n">
         <v>155</v>
       </c>
-      <c r="C59" t="n">
-        <v>-103.4846493832974</v>
-      </c>
-      <c r="D59" t="n">
-        <v>398.5611394116859</v>
-      </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="n">
@@ -1974,12 +1616,6 @@
       <c r="B60" t="n">
         <v>154</v>
       </c>
-      <c r="C60" t="n">
-        <v>-99.81750816742107</v>
-      </c>
-      <c r="D60" t="n">
-        <v>404.69282610804</v>
-      </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="n">
@@ -1988,12 +1624,6 @@
       <c r="B61" t="n">
         <v>153</v>
       </c>
-      <c r="C61" t="n">
-        <v>-115.128461713263</v>
-      </c>
-      <c r="D61" t="n">
-        <v>416.3080984353999</v>
-      </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="n">
@@ -2002,12 +1632,6 @@
       <c r="B62" t="n">
         <v>152</v>
       </c>
-      <c r="C62" t="n">
-        <v>-98.45498947882329</v>
-      </c>
-      <c r="D62" t="n">
-        <v>403.6800290188389</v>
-      </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="n">
@@ -2016,12 +1640,6 @@
       <c r="B63" t="n">
         <v>151</v>
       </c>
-      <c r="C63" t="n">
-        <v>-94.44719218133731</v>
-      </c>
-      <c r="D63" t="n">
-        <v>416.1530277656208</v>
-      </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="n">
@@ -2030,12 +1648,6 @@
       <c r="B64" t="n">
         <v>151</v>
       </c>
-      <c r="C64" t="n">
-        <v>-97.17307238573306</v>
-      </c>
-      <c r="D64" t="n">
-        <v>384.596359739498</v>
-      </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="n">
@@ -2044,12 +1656,6 @@
       <c r="B65" t="n">
         <v>150</v>
       </c>
-      <c r="C65" t="n">
-        <v>-115.5693367864579</v>
-      </c>
-      <c r="D65" t="n">
-        <v>394.9129239423201</v>
-      </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="n">
@@ -2058,12 +1664,6 @@
       <c r="B66" t="n">
         <v>149</v>
       </c>
-      <c r="C66" t="n">
-        <v>-101.2431676799086</v>
-      </c>
-      <c r="D66" t="n">
-        <v>418.7165015691062</v>
-      </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="n">
@@ -2072,12 +1672,6 @@
       <c r="B67" t="n">
         <v>148</v>
       </c>
-      <c r="C67" t="n">
-        <v>-123.2569962768132</v>
-      </c>
-      <c r="D67" t="n">
-        <v>402.9925034983793</v>
-      </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="n">
@@ -2086,12 +1680,6 @@
       <c r="B68" t="n">
         <v>147</v>
       </c>
-      <c r="C68" t="n">
-        <v>-111.4951743891347</v>
-      </c>
-      <c r="D68" t="n">
-        <v>418.1848013221645</v>
-      </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="n">
@@ -2099,12 +1687,6 @@
       </c>
       <c r="B69" t="n">
         <v>146</v>
-      </c>
-      <c r="C69" t="n">
-        <v>-110.9709232269753</v>
-      </c>
-      <c r="D69" t="n">
-        <v>393.3154726183712</v>
       </c>
     </row>
   </sheetData>
